--- a/ArticleManage/main_working_folder/output_folders/Data 80 Preparation and characterization of/Data80_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 80 Preparation and characterization of/Data80_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="600" sheetId="1" r:id="rId1"/>
-    <sheet name="700" sheetId="2" r:id="rId4"/>
-    <sheet name="800" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 600  0-1-400-1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 700  0-1-400-1000 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 800  0-1-400-1000 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -96,7 +96,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600</a:t>
+              <a:t>Izoterma adsorpcji probki 600 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -155,12 +155,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 600  0-1-400-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 600  0-1-400-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -173,6 +173,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -242,6 +244,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -406,7 +410,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 700</a:t>
+              <a:t>Izoterma adsorpcji probki 700 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -465,12 +469,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 700  0-1-400-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 700  0-1-400-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -483,6 +487,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -552,6 +558,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -716,7 +724,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800</a:t>
+              <a:t>Izoterma adsorpcji probki 800 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -775,12 +783,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 800  0-1-400-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 800  0-1-400-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -793,6 +801,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -862,6 +872,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 80 Preparation and characterization of/Data80_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 80 Preparation and characterization of/Data80_all_graphs_excel.xlsx
@@ -3090,7 +3090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3111,413 +3111,325 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="B3" s="0">
-        <v>462.5134</v>
+        <v>644.3037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.8995</v>
       </c>
       <c r="B4" s="0">
-        <v>497.321</v>
+        <v>826.7713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.8245</v>
       </c>
       <c r="B5" s="0">
-        <v>524.0156</v>
+        <v>819.5122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.7983</v>
       </c>
       <c r="B6" s="0">
-        <v>547.0236</v>
+        <v>817.8862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.7731</v>
       </c>
       <c r="B7" s="0">
-        <v>569.8917</v>
+        <v>815.4472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.648</v>
       </c>
       <c r="B8" s="0">
-        <v>591.5581</v>
+        <v>796.748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.6751</v>
       </c>
       <c r="B9" s="0">
-        <v>611.6443</v>
+        <v>799.187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.6993</v>
       </c>
       <c r="B10" s="0">
-        <v>630.4534</v>
+        <v>800.813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.7246</v>
       </c>
       <c r="B11" s="0">
-        <v>644.3037</v>
+        <v>805.6911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.7526</v>
       </c>
       <c r="B12" s="0">
-        <v>660.4457</v>
+        <v>812.1951</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.8497</v>
       </c>
       <c r="B13" s="0">
-        <v>675.7795</v>
+        <v>821.9512</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.8758</v>
       </c>
       <c r="B14" s="0">
-        <v>689.0572</v>
+        <v>824.3902</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.9248</v>
       </c>
       <c r="B15" s="0">
-        <v>701.2363</v>
+        <v>829.2683</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.9491</v>
       </c>
       <c r="B16" s="0">
-        <v>711.2215</v>
+        <v>832.1138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.9739</v>
       </c>
       <c r="B17" s="0">
-        <v>720.8174</v>
+        <v>834.1463</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.9935</v>
       </c>
       <c r="B18" s="0">
-        <v>729.8834</v>
+        <v>836.5854</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.0233</v>
       </c>
       <c r="B19" s="0">
-        <v>738.3153</v>
+        <v>433.3333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.0495</v>
       </c>
       <c r="B20" s="0">
-        <v>745.3235</v>
+        <v>482.1138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.0747</v>
       </c>
       <c r="B21" s="0">
-        <v>750.3917</v>
+        <v>517.0732</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.6228</v>
       </c>
       <c r="B22" s="0">
-        <v>754.6117</v>
+        <v>793.4959</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.5985</v>
       </c>
       <c r="B23" s="0">
-        <v>759.1711</v>
+        <v>790.2439</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.5481</v>
       </c>
       <c r="B24" s="0">
-        <v>766.0799</v>
+        <v>781.3008</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.5266</v>
       </c>
       <c r="B25" s="0">
-        <v>772.6984</v>
+        <v>779.6748</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.5005</v>
       </c>
       <c r="B26" s="0">
-        <v>778.8943</v>
+        <v>773.9837</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.4753</v>
       </c>
       <c r="B27" s="0">
-        <v>783.6733</v>
+        <v>767.4797</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.4482</v>
       </c>
       <c r="B28" s="0">
-        <v>786.4102</v>
+        <v>761.7886</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.4239</v>
       </c>
       <c r="B29" s="0">
-        <v>789.8639</v>
+        <v>756.0976</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.3996</v>
       </c>
       <c r="B30" s="0">
-        <v>792.7959</v>
+        <v>748.7805</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.3744</v>
       </c>
       <c r="B31" s="0">
-        <v>792.848</v>
+        <v>741.4634</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.3492</v>
       </c>
       <c r="B32" s="0">
-        <v>794.1676</v>
+        <v>732.5203</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9</v>
+        <v>0.3249</v>
       </c>
       <c r="B33" s="0">
-        <v>828.8038</v>
+        <v>721.1382</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8245</v>
+        <v>0.577</v>
       </c>
       <c r="B34" s="0">
-        <v>819.5122</v>
+        <v>786.9919</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7983</v>
+        <v>0.3007</v>
       </c>
       <c r="B35" s="0">
-        <v>817.8862</v>
+        <v>708.9431</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7731</v>
+        <v>0.2745</v>
       </c>
       <c r="B36" s="0">
-        <v>815.4472</v>
+        <v>695.935</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.648</v>
+        <v>0.2484</v>
       </c>
       <c r="B37" s="0">
-        <v>796.748</v>
+        <v>678.8618</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6751</v>
+        <v>0.226</v>
       </c>
       <c r="B38" s="0">
-        <v>799.187</v>
+        <v>662.6016</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.6993</v>
+        <v>0.1737</v>
       </c>
       <c r="B39" s="0">
-        <v>800.813</v>
+        <v>621.9512</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.7246</v>
+        <v>0.1503</v>
       </c>
       <c r="B40" s="0">
-        <v>805.6911</v>
+        <v>601.626</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.7526</v>
+        <v>0.1242</v>
       </c>
       <c r="B41" s="0">
-        <v>812.1951</v>
+        <v>573.1707</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8497</v>
+        <v>0.0999</v>
       </c>
       <c r="B42" s="0">
-        <v>821.9512</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8758</v>
-      </c>
-      <c r="B43" s="0">
-        <v>824.3902</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9244</v>
-      </c>
-      <c r="B44" s="0">
-        <v>830.0813</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9514</v>
-      </c>
-      <c r="B45" s="0">
-        <v>831.7073</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9739</v>
-      </c>
-      <c r="B46" s="0">
-        <v>833.3333</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9935</v>
-      </c>
-      <c r="B47" s="0">
-        <v>836.5854</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0233</v>
-      </c>
-      <c r="B48" s="0">
-        <v>433.3333</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0495</v>
-      </c>
-      <c r="B49" s="0">
-        <v>482.1138</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0747</v>
-      </c>
-      <c r="B50" s="0">
-        <v>517.0732</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.1485</v>
-      </c>
-      <c r="B51" s="0">
-        <v>600.813</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.1718</v>
-      </c>
-      <c r="B52" s="0">
-        <v>621.9512</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.2269</v>
-      </c>
-      <c r="B53" s="0">
-        <v>665.8537</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>547.9675</v>
+      </c>
+    </row>
+    <row r="43"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3526,7 +3438,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3547,42 +3459,42 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0242</v>
+        <v>0.0246</v>
       </c>
       <c r="B3" s="0">
-        <v>497.7698</v>
+        <v>496.5503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0503</v>
+        <v>0.0508</v>
       </c>
       <c r="B4" s="0">
-        <v>548.9888</v>
+        <v>550.6148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0744</v>
+        <v>0.073</v>
       </c>
       <c r="B5" s="0">
-        <v>605.2229</v>
+        <v>604.8164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0998</v>
+        <v>0.1016</v>
       </c>
       <c r="B6" s="0">
-        <v>645.9229</v>
+        <v>644.2969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1226</v>
+        <v>0.1235</v>
       </c>
       <c r="B7" s="0">
-        <v>676.9238</v>
+        <v>674.8913</v>
       </c>
     </row>
     <row r="8">
@@ -3590,15 +3502,15 @@
         <v>0.1507</v>
       </c>
       <c r="B8" s="0">
-        <v>709.3507</v>
+        <v>705.6922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1751</v>
+        <v>0.1746</v>
       </c>
       <c r="B9" s="0">
-        <v>736.2345</v>
+        <v>734.202</v>
       </c>
     </row>
     <row r="10">
@@ -3606,15 +3518,15 @@
         <v>0.1998</v>
       </c>
       <c r="B10" s="0">
-        <v>759.949</v>
+        <v>761.1685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2259</v>
+        <v>0.2254</v>
       </c>
       <c r="B11" s="0">
-        <v>785.8661</v>
+        <v>785.053</v>
       </c>
     </row>
     <row r="12">
@@ -3622,7 +3534,7 @@
         <v>0.2485</v>
       </c>
       <c r="B12" s="0">
-        <v>805.3301</v>
+        <v>804.5171</v>
       </c>
     </row>
     <row r="13">
@@ -3651,229 +3563,221 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3397</v>
+        <v>0.3495</v>
       </c>
       <c r="B16" s="0">
-        <v>859.1038</v>
+        <v>857.382</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3509</v>
+        <v>0.376</v>
       </c>
       <c r="B17" s="0">
-        <v>859.4145</v>
+        <v>866.3109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.376</v>
+        <v>0.3994</v>
       </c>
       <c r="B18" s="0">
-        <v>866.3109</v>
+        <v>875.8262</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3985</v>
+        <v>0.4238</v>
       </c>
       <c r="B19" s="0">
-        <v>874.6067</v>
+        <v>882.4556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4238</v>
+        <v>0.4495</v>
       </c>
       <c r="B20" s="0">
-        <v>882.4556</v>
+        <v>889.4999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4495</v>
+        <v>0.475</v>
       </c>
       <c r="B21" s="0">
-        <v>889.4999</v>
+        <v>895.3134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.475</v>
+        <v>0.502</v>
       </c>
       <c r="B22" s="0">
-        <v>895.3134</v>
+        <v>900.931</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.502</v>
+        <v>0.526</v>
       </c>
       <c r="B23" s="0">
-        <v>900.931</v>
+        <v>906.0261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.526</v>
+        <v>0.5478</v>
       </c>
       <c r="B24" s="0">
-        <v>906.0261</v>
+        <v>911.2221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5478</v>
+        <v>0.5763</v>
       </c>
       <c r="B25" s="0">
-        <v>911.2221</v>
+        <v>916.6446</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5763</v>
+        <v>0.5981</v>
       </c>
       <c r="B26" s="0">
-        <v>915.425</v>
+        <v>920.3314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5981</v>
+        <v>0.6236</v>
       </c>
       <c r="B27" s="0">
-        <v>920.3314</v>
+        <v>924.5772</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6236</v>
+        <v>0.6476</v>
       </c>
       <c r="B28" s="0">
-        <v>924.5772</v>
+        <v>928.2352</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6476</v>
+        <v>0.6731</v>
       </c>
       <c r="B29" s="0">
-        <v>928.2352</v>
+        <v>931.5013</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6731</v>
+        <v>0.6986</v>
       </c>
       <c r="B30" s="0">
-        <v>931.5013</v>
+        <v>935.8124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6986</v>
+        <v>0.7233</v>
       </c>
       <c r="B31" s="0">
-        <v>935.8124</v>
+        <v>940.6759</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7233</v>
+        <v>0.7526</v>
       </c>
       <c r="B32" s="0">
-        <v>940.6759</v>
+        <v>944.1735</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7526</v>
+        <v>0.7738</v>
       </c>
       <c r="B33" s="0">
-        <v>944.1735</v>
+        <v>948.0255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7738</v>
+        <v>0.7992</v>
       </c>
       <c r="B34" s="0">
-        <v>946.3995</v>
+        <v>950.5334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7992</v>
+        <v>0.8246</v>
       </c>
       <c r="B35" s="0">
-        <v>950.5334</v>
+        <v>953.9717</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8246</v>
+        <v>0.8501</v>
       </c>
       <c r="B36" s="0">
-        <v>953.9717</v>
+        <v>957.1071</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8501</v>
+        <v>0.8741</v>
       </c>
       <c r="B37" s="0">
-        <v>957.1071</v>
+        <v>959.9812</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8741</v>
+        <v>0.8996</v>
       </c>
       <c r="B38" s="0">
-        <v>959.9812</v>
+        <v>962.9207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8996</v>
+        <v>0.9244</v>
       </c>
       <c r="B39" s="0">
-        <v>962.9207</v>
+        <v>965.5573</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9244</v>
+        <v>0.9505</v>
       </c>
       <c r="B40" s="0">
-        <v>965.5573</v>
+        <v>969.9187</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9505</v>
+        <v>0.9729</v>
       </c>
       <c r="B41" s="0">
-        <v>969.9187</v>
+        <v>973.1707</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9729</v>
+        <v>0.9925</v>
       </c>
       <c r="B42" s="0">
-        <v>973.1707</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9925</v>
-      </c>
-      <c r="B43" s="0">
         <v>977.2358</v>
       </c>
     </row>
-    <row r="44"/>
+    <row r="43"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3911,330 +3815,330 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0487</v>
+        <v>0.1997</v>
       </c>
       <c r="B4" s="0">
-        <v>542.7542</v>
+        <v>708.8817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0527</v>
+        <v>0.2252</v>
       </c>
       <c r="B5" s="0">
-        <v>555.3923</v>
+        <v>722.2926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0617</v>
+        <v>0.2477</v>
       </c>
       <c r="B6" s="0">
-        <v>570.6027</v>
+        <v>731.1143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0732</v>
+        <v>0.475</v>
       </c>
       <c r="B7" s="0">
-        <v>593.759</v>
+        <v>769.6358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0989</v>
+        <v>0.5013</v>
       </c>
       <c r="B8" s="0">
-        <v>628.947</v>
+        <v>771.3164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1241</v>
+        <v>0.5268</v>
       </c>
       <c r="B9" s="0">
-        <v>659.184</v>
+        <v>773.6785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1532</v>
+        <v>0.5478</v>
       </c>
       <c r="B10" s="0">
-        <v>674.3698</v>
+        <v>774.523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1735</v>
+        <v>0.5763</v>
       </c>
       <c r="B11" s="0">
-        <v>692.0345</v>
+        <v>779.6893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1997</v>
+        <v>0.5981</v>
       </c>
       <c r="B12" s="0">
-        <v>708.8817</v>
+        <v>781.9815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2252</v>
+        <v>0.6236</v>
       </c>
       <c r="B13" s="0">
-        <v>722.2926</v>
+        <v>783.3532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2477</v>
+        <v>0.6483</v>
       </c>
       <c r="B14" s="0">
-        <v>731.1143</v>
+        <v>784.2618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2732</v>
+        <v>0.9949</v>
       </c>
       <c r="B15" s="0">
-        <v>739.0122</v>
+        <v>807.9979</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3002</v>
+        <v>0.9739</v>
       </c>
       <c r="B16" s="0">
-        <v>745.3067</v>
+        <v>803.252</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3242</v>
+        <v>0.0504</v>
       </c>
       <c r="B17" s="0">
-        <v>749.6417</v>
+        <v>543.0894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.349</v>
+        <v>0.0504</v>
       </c>
       <c r="B18" s="0">
-        <v>754.612</v>
+        <v>555.2846</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3745</v>
+        <v>0.0747</v>
       </c>
       <c r="B19" s="0">
-        <v>759.8377</v>
+        <v>594.3089</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3985</v>
+        <v>0.1008</v>
       </c>
       <c r="B20" s="0">
-        <v>762.3199</v>
+        <v>627.6423</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.424</v>
+        <v>0.1232</v>
       </c>
       <c r="B21" s="0">
-        <v>764.4101</v>
+        <v>656.9106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4488</v>
+        <v>0.1513</v>
       </c>
       <c r="B22" s="0">
-        <v>766.7439</v>
+        <v>674.7967</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.475</v>
+        <v>0.1746</v>
       </c>
       <c r="B23" s="0">
-        <v>769.6358</v>
+        <v>692.6829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5013</v>
+        <v>0.2736</v>
       </c>
       <c r="B24" s="0">
-        <v>771.3164</v>
+        <v>740.6504</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5268</v>
+        <v>0.2997</v>
       </c>
       <c r="B25" s="0">
-        <v>773.6785</v>
+        <v>747.1545</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5478</v>
+        <v>0.3249</v>
       </c>
       <c r="B26" s="0">
-        <v>774.523</v>
+        <v>751.2195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5763</v>
+        <v>0.3501</v>
       </c>
       <c r="B27" s="0">
-        <v>779.6893</v>
+        <v>755.2846</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5981</v>
+        <v>0.3763</v>
       </c>
       <c r="B28" s="0">
-        <v>781.9815</v>
+        <v>760.1626</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6236</v>
+        <v>0.3987</v>
       </c>
       <c r="B29" s="0">
-        <v>783.3532</v>
+        <v>764.2276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6483</v>
+        <v>0.4239</v>
       </c>
       <c r="B30" s="0">
-        <v>784.2618</v>
+        <v>765.8537</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6738</v>
+        <v>0.4491</v>
       </c>
       <c r="B31" s="0">
-        <v>785.6276</v>
+        <v>768.2927</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6986</v>
+        <v>0.9505</v>
       </c>
       <c r="B32" s="0">
-        <v>787.6427</v>
+        <v>802.439</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7233</v>
+        <v>0.9253</v>
       </c>
       <c r="B33" s="0">
-        <v>787.5872</v>
+        <v>801.626</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7518</v>
+        <v>0.8992</v>
       </c>
       <c r="B34" s="0">
-        <v>789.9361</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7744</v>
+        <v>0.8758</v>
       </c>
       <c r="B35" s="0">
-        <v>792.6941</v>
+        <v>799.187</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7999</v>
+        <v>0.8497</v>
       </c>
       <c r="B36" s="0">
-        <v>794.8715</v>
+        <v>798.374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8239</v>
+        <v>0.8235</v>
       </c>
       <c r="B37" s="0">
-        <v>796.1383</v>
+        <v>797.561</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8494</v>
+        <v>0.8002</v>
       </c>
       <c r="B38" s="0">
-        <v>797.4118</v>
+        <v>796.748</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8749</v>
+        <v>0.8002</v>
       </c>
       <c r="B39" s="0">
-        <v>798.2827</v>
+        <v>796.748</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8974</v>
+        <v>0.775</v>
       </c>
       <c r="B40" s="0">
-        <v>799.9032</v>
+        <v>794.3089</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9484</v>
+        <v>0.7526</v>
       </c>
       <c r="B41" s="0">
-        <v>802.0766</v>
+        <v>791.0569</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9949</v>
+        <v>0.7227</v>
       </c>
       <c r="B42" s="0">
-        <v>807.9979</v>
+        <v>789.4309</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9739</v>
+        <v>0.6984</v>
       </c>
       <c r="B43" s="0">
-        <v>803.252</v>
+        <v>788.6179</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9262</v>
+        <v>0.6741</v>
       </c>
       <c r="B44" s="0">
-        <v>800</v>
+        <v>786.9919</v>
       </c>
     </row>
     <row r="45"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 80 Preparation and characterization of/Data80_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 80 Preparation and characterization of/Data80_all_graphs_excel.xlsx
@@ -5,21 +5,34 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 600  0-1-400-1000 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 700  0-1-400-1000 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 800  0-1-400-1000 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 600  0&amp;1&amp;400&amp;1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 700  0&amp;1&amp;400&amp;1000 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 800  0&amp;1&amp;400&amp;1000 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 0-5  0&amp;1&amp;300&amp;1000 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 1-0  0&amp;1&amp;300&amp;1000 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3 1-5  0&amp;1&amp;300&amp;1000 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3 2-0  0&amp;1&amp;300&amp;1000 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>2-0</t>
   </si>
 </sst>
 </file>
@@ -155,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 600  0-1-400-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 600  0&amp;1&amp;400&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 600  0-1-400-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 600  0&amp;1&amp;400&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -469,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 700  0-1-400-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 700  0&amp;1&amp;400&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 700  0-1-400-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 700  0&amp;1&amp;400&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -783,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 800  0-1-400-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 800  0&amp;1&amp;400&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 800  0-1-400-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 800  0&amp;1&amp;400&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -874,6 +887,1262 @@
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
           <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 0-5 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 0-5  0&amp;1&amp;300&amp;1000 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 0-5  0&amp;1&amp;300&amp;1000 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 1-0 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 1-0  0&amp;1&amp;300&amp;1000 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 1-0  0&amp;1&amp;300&amp;1000 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 1-5 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 1-5  0&amp;1&amp;300&amp;1000 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 1-5  0&amp;1&amp;300&amp;1000 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 2-0 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 2-0  0&amp;1&amp;300&amp;1000 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 2-0  0&amp;1&amp;300&amp;1000 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1125,6 +2394,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2168,6 +3597,2090 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2776,6 +6289,146 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4146,4 +7799,1404 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.024</v>
+      </c>
+      <c r="B3" s="0">
+        <v>337.8268</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0507</v>
+      </c>
+      <c r="B4" s="0">
+        <v>371.9608</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0751</v>
+      </c>
+      <c r="B5" s="0">
+        <v>397.3286</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1004</v>
+      </c>
+      <c r="B6" s="0">
+        <v>417.1587</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1253</v>
+      </c>
+      <c r="B7" s="0">
+        <v>435.6047</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1506</v>
+      </c>
+      <c r="B8" s="0">
+        <v>452.6662</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1732</v>
+      </c>
+      <c r="B9" s="0">
+        <v>466.9603</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2004</v>
+      </c>
+      <c r="B10" s="0">
+        <v>483.0981</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2243</v>
+      </c>
+      <c r="B11" s="0">
+        <v>495.0844</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2497</v>
+      </c>
+      <c r="B12" s="0">
+        <v>506.6086</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2759</v>
+      </c>
+      <c r="B13" s="0">
+        <v>519.0553</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2981</v>
+      </c>
+      <c r="B14" s="0">
+        <v>528.7352</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3234</v>
+      </c>
+      <c r="B15" s="0">
+        <v>538.8752</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3496</v>
+      </c>
+      <c r="B16" s="0">
+        <v>549.0147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3754</v>
+      </c>
+      <c r="B17" s="0">
+        <v>556.8472</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4007</v>
+      </c>
+      <c r="B18" s="0">
+        <v>564.2185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.4238</v>
+      </c>
+      <c r="B19" s="0">
+        <v>571.5909</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.45</v>
+      </c>
+      <c r="B20" s="0">
+        <v>580.3461</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.474</v>
+      </c>
+      <c r="B21" s="0">
+        <v>586.7951</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4998</v>
+      </c>
+      <c r="B22" s="0">
+        <v>592.3205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5246</v>
+      </c>
+      <c r="B23" s="0">
+        <v>597.8462</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.55</v>
+      </c>
+      <c r="B24" s="0">
+        <v>602.9104</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.5762</v>
+      </c>
+      <c r="B25" s="0">
+        <v>607.9741</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.6011</v>
+      </c>
+      <c r="B26" s="0">
+        <v>613.0384</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.6264</v>
+      </c>
+      <c r="B27" s="0">
+        <v>616.7182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.6522</v>
+      </c>
+      <c r="B28" s="0">
+        <v>620.8592</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.6766</v>
+      </c>
+      <c r="B29" s="0">
+        <v>624.5395</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.701</v>
+      </c>
+      <c r="B30" s="0">
+        <v>629.604</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7268</v>
+      </c>
+      <c r="B31" s="0">
+        <v>633.745</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.7517</v>
+      </c>
+      <c r="B32" s="0">
+        <v>637.8865</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.7766</v>
+      </c>
+      <c r="B33" s="0">
+        <v>640.6436</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.8005</v>
+      </c>
+      <c r="B34" s="0">
+        <v>645.2469</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.8259</v>
+      </c>
+      <c r="B35" s="0">
+        <v>649.3882</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.8507</v>
+      </c>
+      <c r="B36" s="0">
+        <v>653.5296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.8761</v>
+      </c>
+      <c r="B37" s="0">
+        <v>658.1323</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.9005</v>
+      </c>
+      <c r="B38" s="0">
+        <v>662.274</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.9231</v>
+      </c>
+      <c r="B39" s="0">
+        <v>665.0322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.9498</v>
+      </c>
+      <c r="B40" s="0">
+        <v>669.6342</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.9747</v>
+      </c>
+      <c r="B41" s="0">
+        <v>675.16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.9923</v>
+      </c>
+      <c r="B42" s="0">
+        <v>677.9205</v>
+      </c>
+    </row>
+    <row r="43"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9919</v>
+      </c>
+      <c r="B3" s="0">
+        <v>705.6069</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9747</v>
+      </c>
+      <c r="B4" s="0">
+        <v>703.3077</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9493</v>
+      </c>
+      <c r="B5" s="0">
+        <v>700.5507</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9227</v>
+      </c>
+      <c r="B6" s="0">
+        <v>699.1787</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9014</v>
+      </c>
+      <c r="B7" s="0">
+        <v>697.8042</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8765</v>
+      </c>
+      <c r="B8" s="0">
+        <v>696.8928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8507</v>
+      </c>
+      <c r="B9" s="0">
+        <v>695.059</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8263</v>
+      </c>
+      <c r="B10" s="0">
+        <v>694.6088</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.801</v>
+      </c>
+      <c r="B11" s="0">
+        <v>693.2362</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7761</v>
+      </c>
+      <c r="B12" s="0">
+        <v>691.8634</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7517</v>
+      </c>
+      <c r="B13" s="0">
+        <v>687.2603</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7264</v>
+      </c>
+      <c r="B14" s="0">
+        <v>686.3491</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.701</v>
+      </c>
+      <c r="B15" s="0">
+        <v>685.4379</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6771</v>
+      </c>
+      <c r="B16" s="0">
+        <v>684.0646</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6517</v>
+      </c>
+      <c r="B17" s="0">
+        <v>682.692</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.626</v>
+      </c>
+      <c r="B18" s="0">
+        <v>681.3196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6006</v>
+      </c>
+      <c r="B19" s="0">
+        <v>679.4855</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5758</v>
+      </c>
+      <c r="B20" s="0">
+        <v>677.6513</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.55</v>
+      </c>
+      <c r="B21" s="0">
+        <v>675.8174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5246</v>
+      </c>
+      <c r="B22" s="0">
+        <v>672.1376</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4989</v>
+      </c>
+      <c r="B23" s="0">
+        <v>671.2266</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4735</v>
+      </c>
+      <c r="B24" s="0">
+        <v>668.9311</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.45</v>
+      </c>
+      <c r="B25" s="0">
+        <v>666.6348</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4229</v>
+      </c>
+      <c r="B26" s="0">
+        <v>664.8016</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4012</v>
+      </c>
+      <c r="B27" s="0">
+        <v>661.5815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3754</v>
+      </c>
+      <c r="B28" s="0">
+        <v>658.3634</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.3496</v>
+      </c>
+      <c r="B29" s="0">
+        <v>655.6066</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.3234</v>
+      </c>
+      <c r="B30" s="0">
+        <v>651.0044</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.2985</v>
+      </c>
+      <c r="B31" s="0">
+        <v>645.4786</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2759</v>
+      </c>
+      <c r="B32" s="0">
+        <v>639.9518</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.2497</v>
+      </c>
+      <c r="B33" s="0">
+        <v>634.4267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.2252</v>
+      </c>
+      <c r="B34" s="0">
+        <v>624.2863</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.2013</v>
+      </c>
+      <c r="B35" s="0">
+        <v>613.2229</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1728</v>
+      </c>
+      <c r="B36" s="0">
+        <v>600.7772</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1506</v>
+      </c>
+      <c r="B37" s="0">
+        <v>589.2515</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1262</v>
+      </c>
+      <c r="B38" s="0">
+        <v>569.8824</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B39" s="0">
+        <v>546.8227</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0755</v>
+      </c>
+      <c r="B40" s="0">
+        <v>521.4549</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0498</v>
+      </c>
+      <c r="B41" s="0">
+        <v>485.0133</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0253</v>
+      </c>
+      <c r="B42" s="0">
+        <v>435.6508</v>
+      </c>
+    </row>
+    <row r="43"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0253</v>
+      </c>
+      <c r="B3" s="0">
+        <v>495.6376</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.052</v>
+      </c>
+      <c r="B4" s="0">
+        <v>544.0762</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.076</v>
+      </c>
+      <c r="B5" s="0">
+        <v>601.7448</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1009</v>
+      </c>
+      <c r="B6" s="0">
+        <v>649.2613</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1257</v>
+      </c>
+      <c r="B7" s="0">
+        <v>673.706</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1506</v>
+      </c>
+      <c r="B8" s="0">
+        <v>704.6108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1728</v>
+      </c>
+      <c r="B9" s="0">
+        <v>734.1325</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2004</v>
+      </c>
+      <c r="B10" s="0">
+        <v>760.8832</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2248</v>
+      </c>
+      <c r="B11" s="0">
+        <v>784.4052</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2501</v>
+      </c>
+      <c r="B12" s="0">
+        <v>804.2353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2754</v>
+      </c>
+      <c r="B13" s="0">
+        <v>817.1438</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2981</v>
+      </c>
+      <c r="B14" s="0">
+        <v>831.8994</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3229</v>
+      </c>
+      <c r="B15" s="0">
+        <v>845.2696</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3496</v>
+      </c>
+      <c r="B16" s="0">
+        <v>856.7932</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3754</v>
+      </c>
+      <c r="B17" s="0">
+        <v>866.4715</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4012</v>
+      </c>
+      <c r="B18" s="0">
+        <v>874.304</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.4229</v>
+      </c>
+      <c r="B19" s="0">
+        <v>881.677</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.4496</v>
+      </c>
+      <c r="B20" s="0">
+        <v>888.5862</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.474</v>
+      </c>
+      <c r="B21" s="0">
+        <v>895.4965</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4993</v>
+      </c>
+      <c r="B22" s="0">
+        <v>900.0992</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5246</v>
+      </c>
+      <c r="B23" s="0">
+        <v>905.6247</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.55</v>
+      </c>
+      <c r="B24" s="0">
+        <v>910.6889</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.5762</v>
+      </c>
+      <c r="B25" s="0">
+        <v>915.7526</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.6011</v>
+      </c>
+      <c r="B26" s="0">
+        <v>920.3555</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.626</v>
+      </c>
+      <c r="B27" s="0">
+        <v>924.9584</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.6517</v>
+      </c>
+      <c r="B28" s="0">
+        <v>928.1765</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.6766</v>
+      </c>
+      <c r="B29" s="0">
+        <v>932.318</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.7019</v>
+      </c>
+      <c r="B30" s="0">
+        <v>935.9978</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7268</v>
+      </c>
+      <c r="B31" s="0">
+        <v>941.0621</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.7521</v>
+      </c>
+      <c r="B32" s="0">
+        <v>944.2805</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.7766</v>
+      </c>
+      <c r="B33" s="0">
+        <v>947.4993</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.8014</v>
+      </c>
+      <c r="B34" s="0">
+        <v>950.2564</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.8268</v>
+      </c>
+      <c r="B35" s="0">
+        <v>953.9362</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.8512</v>
+      </c>
+      <c r="B36" s="0">
+        <v>957.155</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.8765</v>
+      </c>
+      <c r="B37" s="0">
+        <v>960.3734</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.9009</v>
+      </c>
+      <c r="B38" s="0">
+        <v>964.0536</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.924</v>
+      </c>
+      <c r="B39" s="0">
+        <v>966.3502</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.9498</v>
+      </c>
+      <c r="B40" s="0">
+        <v>970.4912</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.9751</v>
+      </c>
+      <c r="B41" s="0">
+        <v>974.6324</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.99</v>
+      </c>
+      <c r="B42" s="0">
+        <v>976.0099</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.9923</v>
+      </c>
+      <c r="B43" s="0">
+        <v>987.0833</v>
+      </c>
+    </row>
+    <row r="44"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9896</v>
+      </c>
+      <c r="B3" s="0">
+        <v>812.1999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9742</v>
+      </c>
+      <c r="B4" s="0">
+        <v>806.6698</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9502</v>
+      </c>
+      <c r="B5" s="0">
+        <v>799.7593</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9236</v>
+      </c>
+      <c r="B6" s="0">
+        <v>790.5429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9009</v>
+      </c>
+      <c r="B7" s="0">
+        <v>785.4775</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8765</v>
+      </c>
+      <c r="B8" s="0">
+        <v>779.0286</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8517</v>
+      </c>
+      <c r="B9" s="0">
+        <v>771.6571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8268</v>
+      </c>
+      <c r="B10" s="0">
+        <v>766.1313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8014</v>
+      </c>
+      <c r="B11" s="0">
+        <v>760.6058</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.777</v>
+      </c>
+      <c r="B12" s="0">
+        <v>755.5413</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7517</v>
+      </c>
+      <c r="B13" s="0">
+        <v>749.0928</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7268</v>
+      </c>
+      <c r="B14" s="0">
+        <v>745.4128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.701</v>
+      </c>
+      <c r="B15" s="0">
+        <v>740.8103</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6771</v>
+      </c>
+      <c r="B16" s="0">
+        <v>734.8227</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6517</v>
+      </c>
+      <c r="B17" s="0">
+        <v>729.7586</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.626</v>
+      </c>
+      <c r="B18" s="0">
+        <v>724.6947</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6011</v>
+      </c>
+      <c r="B19" s="0">
+        <v>719.6303</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5762</v>
+      </c>
+      <c r="B20" s="0">
+        <v>714.1046</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.55</v>
+      </c>
+      <c r="B21" s="0">
+        <v>709.5023</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5246</v>
+      </c>
+      <c r="B22" s="0">
+        <v>703.9768</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4998</v>
+      </c>
+      <c r="B23" s="0">
+        <v>697.9896</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4731</v>
+      </c>
+      <c r="B24" s="0">
+        <v>693.3875</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.45</v>
+      </c>
+      <c r="B25" s="0">
+        <v>684.6308</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4238</v>
+      </c>
+      <c r="B26" s="0">
+        <v>678.1828</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4007</v>
+      </c>
+      <c r="B27" s="0">
+        <v>670.349</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3758</v>
+      </c>
+      <c r="B28" s="0">
+        <v>661.1318</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.3492</v>
+      </c>
+      <c r="B29" s="0">
+        <v>650.9925</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.3234</v>
+      </c>
+      <c r="B30" s="0">
+        <v>640.8528</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.2985</v>
+      </c>
+      <c r="B31" s="0">
+        <v>630.2512</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2763</v>
+      </c>
+      <c r="B32" s="0">
+        <v>619.6484</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.2501</v>
+      </c>
+      <c r="B33" s="0">
+        <v>602.5873</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.2248</v>
+      </c>
+      <c r="B34" s="0">
+        <v>591.0631</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.2013</v>
+      </c>
+      <c r="B35" s="0">
+        <v>574.4622</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1737</v>
+      </c>
+      <c r="B36" s="0">
+        <v>556.4789</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1506</v>
+      </c>
+      <c r="B37" s="0">
+        <v>536.1863</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1257</v>
+      </c>
+      <c r="B38" s="0">
+        <v>513.1259</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.1004</v>
+      </c>
+      <c r="B39" s="0">
+        <v>487.7585</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0764</v>
+      </c>
+      <c r="B40" s="0">
+        <v>461.4677</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0493</v>
+      </c>
+      <c r="B41" s="0">
+        <v>434.7169</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0253</v>
+      </c>
+      <c r="B42" s="0">
+        <v>399.6587</v>
+      </c>
+    </row>
+    <row r="43"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>